--- a/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -57,7 +57,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -78,13 +78,6 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FFFF0000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>

--- a/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -35,19 +35,19 @@
     <x:t>Link to an address in this worksheet</x:t>
   </x:si>
   <x:si>
+    <x:t>Link to a range in this worksheet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Link to an email message</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is no longer a link</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Odd looking link</x:t>
+  </x:si>
+  <x:si>
     <x:t>Link to an address in another worksheet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Link to a range in this worksheet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Link to an email message</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is no longer a link</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Odd looking link</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -428,13 +428,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A13"/>
+  <x:dimension ref="A1:A14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="37.750625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="55.700625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">
@@ -478,34 +478,40 @@
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
-      <x:c r="A9" s="1" t="s">
+      <x:c r="A9" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
-      <x:c r="A10" s="0" t="s">
+      <x:c r="A10" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="A11" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1"/>
+    <x:row r="12" spans="1:1">
+      <x:c r="A12" s="1">
+        <x:f>HYPERLINK("mailto:test@test.com", "Send Email")</x:f>
+      </x:c>
+    </x:row>
     <x:row r="13" spans="1:1"/>
+    <x:row r="14" spans="1:1"/>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="A1" r:id="rId11"/>
-    <x:hyperlink ref="A2" r:id="rId13" tooltip="Click to go to Yahoo!"/>
+    <x:hyperlink ref="A1" r:id="rId14"/>
+    <x:hyperlink ref="A2" r:id="rId15" tooltip="Click to go to Yahoo!"/>
     <x:hyperlink ref="A3" location="'Hyperlinks'!Test.xlsx" display="Link to a file - same folder"/>
-    <x:hyperlink ref="A4" r:id="rId14"/>
-    <x:hyperlink ref="A5" r:id="rId15"/>
+    <x:hyperlink ref="A4" r:id="rId16"/>
+    <x:hyperlink ref="A5" r:id="rId17"/>
     <x:hyperlink ref="A6" location="'Hyperlinks'!B1" display="Link to an address in this worksheet"/>
-    <x:hyperlink ref="A7" location="'Second Sheet'!A1" display="Link to an address in another worksheet"/>
-    <x:hyperlink ref="A8" location="'Hyperlinks'!B1:C2" tooltip="SquareBox" display="Link to a range in this worksheet"/>
-    <x:hyperlink ref="A9" r:id="rId16"/>
-    <x:hyperlink ref="A11" location="'Hyperlinks'!B1:C2" display="Odd looking link"/>
+    <x:hyperlink ref="A7" location="'Hyperlinks'!B1:C2" tooltip="SquareBox" display="Link to a range in this worksheet"/>
+    <x:hyperlink ref="A8" r:id="rId18"/>
+    <x:hyperlink ref="A10" location="'Hyperlinks'!B1:C2" display="Odd looking link"/>
+    <x:hyperlink ref="A11" location="'Second Sheet'!A1" display="Link to an address in another worksheet"/>
+    <x:hyperlink ref="A12" r:id="rId19" tooltip="'Send Email'"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -35,6 +35,9 @@
     <x:t>Link to an address in this worksheet</x:t>
   </x:si>
   <x:si>
+    <x:t>Link to an address in another worksheet</x:t>
+  </x:si>
+  <x:si>
     <x:t>Link to a range in this worksheet</x:t>
   </x:si>
   <x:si>
@@ -45,9 +48,6 @@
   </x:si>
   <x:si>
     <x:t>Odd looking link</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Link to an address in another worksheet</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -478,17 +478,17 @@
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
-      <x:c r="A9" s="0" t="s">
+      <x:c r="A9" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="A10" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
-      <x:c r="A11" s="1" t="s">
+      <x:c r="A11" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
@@ -507,10 +507,10 @@
     <x:hyperlink ref="A4" r:id="rId16"/>
     <x:hyperlink ref="A5" r:id="rId17"/>
     <x:hyperlink ref="A6" location="'Hyperlinks'!B1" display="Link to an address in this worksheet"/>
-    <x:hyperlink ref="A7" location="'Hyperlinks'!B1:C2" tooltip="SquareBox" display="Link to a range in this worksheet"/>
-    <x:hyperlink ref="A8" r:id="rId18"/>
-    <x:hyperlink ref="A10" location="'Hyperlinks'!B1:C2" display="Odd looking link"/>
-    <x:hyperlink ref="A11" location="'Second Sheet'!A1" display="Link to an address in another worksheet"/>
+    <x:hyperlink ref="A7" location="'Second Sheet'!A1" display="Link to an address in another worksheet"/>
+    <x:hyperlink ref="A8" location="'Hyperlinks'!B1:C2" tooltip="SquareBox" display="Link to a range in this worksheet"/>
+    <x:hyperlink ref="A9" r:id="rId18"/>
+    <x:hyperlink ref="A11" location="'Hyperlinks'!B1:C2" display="Odd looking link"/>
     <x:hyperlink ref="A12" r:id="rId19" tooltip="'Send Email'"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -434,7 +434,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="55.700625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="37.750625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -503,14 +503,14 @@
   <x:hyperlinks>
     <x:hyperlink ref="A1" r:id="rId14"/>
     <x:hyperlink ref="A2" r:id="rId15" tooltip="Click to go to Yahoo!"/>
-    <x:hyperlink ref="A3" location="'Hyperlinks'!Test.xlsx" display="Link to a file - same folder"/>
+    <x:hyperlink ref="A3" location="Hyperlinks!Test.xlsx" display="Link to a file - same folder"/>
     <x:hyperlink ref="A4" r:id="rId16"/>
     <x:hyperlink ref="A5" r:id="rId17"/>
-    <x:hyperlink ref="A6" location="'Hyperlinks'!B1" display="Link to an address in this worksheet"/>
+    <x:hyperlink ref="A6" location="Hyperlinks!B1" display="Link to an address in this worksheet"/>
     <x:hyperlink ref="A7" location="'Second Sheet'!A1" display="Link to an address in another worksheet"/>
-    <x:hyperlink ref="A8" location="'Hyperlinks'!B1:C2" tooltip="SquareBox" display="Link to a range in this worksheet"/>
+    <x:hyperlink ref="A8" location="Hyperlinks!B1:C2" tooltip="SquareBox" display="Link to a range in this worksheet"/>
     <x:hyperlink ref="A9" r:id="rId18"/>
-    <x:hyperlink ref="A11" location="'Hyperlinks'!B1:C2" display="Odd looking link"/>
+    <x:hyperlink ref="A11" location="Hyperlinks!B1:C2" display="Odd looking link"/>
     <x:hyperlink ref="A12" r:id="rId19" tooltip="'Send Email'"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -140,7 +140,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -423,7 +423,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -497,8 +497,6 @@
         <x:f>HYPERLINK("mailto:test@test.com", "Send Email")</x:f>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1"/>
-    <x:row r="14" spans="1:1"/>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="A1" r:id="rId14"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -434,7 +434,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="37.750625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="30.940625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">
